--- a/Hotel_Management_System/RTM/RTM_Group_2.xlsx
+++ b/Hotel_Management_System/RTM/RTM_Group_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apalled\Desktop\sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apalled\Desktop\Hotel_Management_System\RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0616FB8F-AAAC-4F43-A017-067CED2618D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B7D445-2550-46B5-9C94-4D168307807A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Names</t>
   </si>
@@ -57,21 +57,9 @@
     <t>Geethanjali Goddumarri</t>
   </si>
   <si>
-    <t>[HMS]</t>
-  </si>
-  <si>
     <t>2.1.1</t>
   </si>
   <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>2.1.3</t>
-  </si>
-  <si>
-    <t>2.1.4</t>
-  </si>
-  <si>
     <t>Rachala Manisha</t>
   </si>
   <si>
@@ -96,21 +84,91 @@
     <t>modify_room(),search_customer(),view_customer()</t>
   </si>
   <si>
-    <t>[HMS]/1.1</t>
-  </si>
-  <si>
-    <t>[HMS]/1.2</t>
+    <t>[HMS]//09/10</t>
+  </si>
+  <si>
+    <t>[HMS]/02/04</t>
+  </si>
+  <si>
+    <t>[HMS]/07</t>
+  </si>
+  <si>
+    <t>[HMS]/03/11</t>
+  </si>
+  <si>
+    <t>[HMS]/04/11</t>
+  </si>
+  <si>
+    <t>[HMS]/01/05</t>
+  </si>
+  <si>
+    <t>2.1.2,2.1.3,2.1.7</t>
+  </si>
+  <si>
+    <t>2.1.4,2.1.5,2.1.6</t>
+  </si>
+  <si>
+    <t>2.1.8</t>
+  </si>
+  <si>
+    <t>2.2.1,2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3,2.2.4,2.2.5</t>
+  </si>
+  <si>
+    <t>ADMIN_VALIDATION_007</t>
+  </si>
+  <si>
+    <t>ADD_ROOM_001,DISPLAY_ROOM_002,EXIT_006</t>
+  </si>
+  <si>
+    <t>MODIFY_ROOM_003,SEARCH_CUSTOMER_004,VIEW_CUSTOMER_005</t>
+  </si>
+  <si>
+    <t>modify_room_003,search_customer_004,view_customer_005</t>
+  </si>
+  <si>
+    <t>add_room_001,display_room_002,exit_006</t>
+  </si>
+  <si>
+    <t>REGISTER_NEW_CUSTOMER_008,BOOK_ROOM_008</t>
+  </si>
+  <si>
+    <t>SEARCH_ROOM_010,CHECKOUT_ROOM_011,EXIT_012</t>
+  </si>
+  <si>
+    <t>ADMIN_VALIDATION_013</t>
+  </si>
+  <si>
+    <t>admin_validation_007</t>
+  </si>
+  <si>
+    <t>register_new_customer_008,book_room_009</t>
+  </si>
+  <si>
+    <t>search_room_010,checkout_room_011,exit_13</t>
+  </si>
+  <si>
+    <t>admin_login_14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,28 +280,28 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -471,7 +529,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -506,120 +564,146 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5">
-      <c r="A2" s="10" t="s">
-        <v>15</v>
+      <c r="A2" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="14.5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="26">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="14.5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="14.5">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="14.5">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="14.5">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="14.5">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="14.5">
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="18" spans="4:4" ht="14.5">
-      <c r="D18" s="8"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="20" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="21" spans="4:4" ht="15.75" customHeight="1"/>
@@ -1602,7 +1686,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
